--- a/branches/itemExtensions/StructureDefinition-plan-definition-s37.xlsx
+++ b/branches/itemExtensions/StructureDefinition-plan-definition-s37.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://science37.com/StructureDefinition/plan-definition-s37</t>
+    <t>http://science37.com/fhir/StructureDefinition/plan-definition-s37</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:43:07+00:00</t>
+    <t>2022-04-19T16:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -433,7 +433,7 @@
     <t>parentreference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/parent-reference}
+    <t xml:space="preserve">Extension {http://science37.com/fhir/StructureDefinition/parent-reference}
 </t>
   </si>
   <si>
@@ -447,14 +447,14 @@
     <t>datetime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/datetime}
+    <t xml:space="preserve">Extension {http://science37.com/fhir/StructureDefinition/datetime}
 </t>
   </si>
   <si>
     <t>AuditTrailVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/audit-trail-version}
+    <t xml:space="preserve">Extension {http://science37.com/fhir/StructureDefinition/audit-trail-version}
 </t>
   </si>
   <si>
@@ -464,7 +464,7 @@
     <t>dayzero</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/day-zero}
+    <t xml:space="preserve">Extension {http://science37.com/fhir/StructureDefinition/day-zero}
 </t>
   </si>
   <si>
@@ -474,7 +474,7 @@
     <t>protocalversion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/protocal-version}
+    <t xml:space="preserve">Extension {http://science37.com/fhir/StructureDefinition/protocal-version}
 </t>
   </si>
   <si>
